--- a/data/regression/results/random_forest_importance.xlsx
+++ b/data/regression/results/random_forest_importance.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B98"/>
+  <dimension ref="A1:B91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,147 +452,147 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1096085539104674</v>
+        <v>0.09887501526977123</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>otrofactor</t>
+          <t>dayoftheweek</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.0838958853738867</v>
+        <v>0.09682402125801522</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>bienestar</t>
+          <t>otrofactor</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.08005867664488218</v>
+        <v>0.08013130524169729</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>dayoftheweek</t>
+          <t>bienestar</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.07290155273052751</v>
+        <v>0.06589331398081105</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>index</t>
+          <t>Totaltime</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.03397242474890335</v>
+        <v>0.05053771469614842</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>µgm3</t>
+          <t>sec_noise55_day</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.02505682781990946</v>
+        <v>0.02950747599999023</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>mean_congruent</t>
+          <t>µgm3</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.02139306622568869</v>
+        <v>0.02907741627195007</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Totaltime</t>
+          <t>age_yrs</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0213004847278137</v>
+        <v>0.02768490068390338</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>energia</t>
+          <t>ID_Zenodo</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.01755717826545861</v>
+        <v>0.02271270949269652</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>covid_motor</t>
+          <t>mean_congruent</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.0162447459196298</v>
+        <v>0.02027346349125209</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>no2gps_12h</t>
+          <t>tmean_24h</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.01564393201393733</v>
+        <v>0.02022413590477517</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>sec_noise55_day</t>
+          <t>inhib_control</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.01503711222092696</v>
+        <v>0.01840242507845293</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>inhib_control</t>
+          <t>tmean_12h</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.01501875769421989</v>
+        <v>0.01661515478570087</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>ID_Zenodo</t>
+          <t>sec_noise65_day</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.01499314209360398</v>
+        <v>0.01641981338535083</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>sueno</t>
+          <t>pm25bcn</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.01483549589563952</v>
+        <v>0.01558388549297818</v>
       </c>
     </row>
     <row r="17">
@@ -602,367 +602,367 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.01482692571169931</v>
+        <v>0.01548795460520847</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>humi_12h</t>
+          <t>horasfuera</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.01450392473001296</v>
+        <v>0.01489449054728047</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>z_inhib_control</t>
+          <t>sueno</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.01445703297727726</v>
+        <v>0.01478367131658935</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>yearbirth</t>
+          <t>no2gps_12h</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.01397964560045238</v>
+        <v>0.0147688790101955</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>tmean_12h</t>
+          <t>z_performance</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.01378697794525546</v>
+        <v>0.0141447599779662</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>z_performance</t>
+          <t>z_inhib_control</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.01249133503336232</v>
+        <v>0.01376715200802381</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>no2bcn_12h_x30</t>
+          <t>covid_mood</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.01241958951858189</v>
+        <v>0.01306297865391264</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>no2bcn_12h</t>
+          <t>pressure_24h</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.01241385880728202</v>
+        <v>0.01294183366652413</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>z_mean_incongruent</t>
+          <t>humi_12h</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.01235138991096006</v>
+        <v>0.01210535466672414</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Houroff_hour</t>
+          <t>no2bcn_12h_x30</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.01235112160042159</v>
+        <v>0.01203246388906488</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>age_yrs</t>
+          <t>pressure_12h</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.01231809357536781</v>
+        <v>0.01188892283550646</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>pressure_12h</t>
+          <t>energia</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.01224308227031775</v>
+        <v>0.01174820177161992</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>occurrence_stroop</t>
+          <t>no2bcn_24h_x30</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.01149050814088652</v>
+        <v>0.01157076441765158</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>horasfuera</t>
+          <t>covid_work</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.01136092042965518</v>
+        <v>0.01092563955328726</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Houron_hour</t>
+          <t>occurrence_stroop</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.01128180212861528</v>
+        <v>0.01024294729347524</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>sec_noise65_day</t>
+          <t>z_mean_incongruent</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.01127244770003531</v>
+        <v>0.01013958120866199</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>tmean_24h</t>
+          <t>occurrence_mental</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.01090144319675408</v>
+        <v>0.01006192209811387</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>covid_mood</t>
+          <t>no2bcn_12h</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.01046253485136921</v>
+        <v>0.00997223450367651</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>pm25bcn</t>
+          <t>no2bcn_24h</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.01030301582617729</v>
+        <v>0.009789220500209325</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Houroff_minute</t>
+          <t>min_gps</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.01007460151845739</v>
+        <v>0.009759453796721607</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>pressure_24h</t>
+          <t>smoke</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.009757181351226293</v>
+        <v>0.009160814442091424</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>sec_greenblue_day</t>
+          <t>BCμg</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.009575988243151555</v>
+        <v>0.008084280145514194</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>min_gps</t>
+          <t>covid_motor</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.00948471538126492</v>
+        <v>0.007317001638875655</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>occurrence_mental</t>
+          <t>no2gps_12h_x30</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.009434277888125162</v>
+        <v>0.007014201254551725</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Houron_minute</t>
+          <t>no2gps_24h</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.008838484678315453</v>
+        <v>0.006639182427205532</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>no2bcn_24h</t>
+          <t>covid_sleep</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.008782321098550231</v>
+        <v>0.006586989599977676</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>hour</t>
+          <t>no2gps_24h_x30</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.008280305061336299</v>
+        <v>0.006430671683138258</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>no2bcn_24h_x30</t>
+          <t>sec_greenblue_day</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.007941348556576862</v>
+        <v>0.005933915385275832</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>no2gps_24h</t>
+          <t>response_duration_ms</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.00765484267781712</v>
+        <v>0.005893027252789283</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>BCμg</t>
+          <t>performance</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.007526723718024209</v>
+        <v>0.005620093059859157</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>performance</t>
+          <t>mean_incongruent</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.007302842943726737</v>
+        <v>0.005111470546198229</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>no2gps_24h_x30</t>
+          <t>district_ciutat vella</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.007287741513053511</v>
+        <v>0.004176935864553074</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>no2gps_12h_x30</t>
+          <t>district_horta-guinardo</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.006694251204128908</v>
+        <v>0.004165256090951137</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>mean_incongruent</t>
+          <t>covid_public_trans</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.006694011449127913</v>
+        <v>0.003607889755420121</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>response_duration_ms</t>
+          <t>access_greenbluespaces_300mbuff</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.006091074755157787</v>
+        <v>0.003503859321345258</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>covid_sleep</t>
+          <t>actividadfisica</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.00480199903655306</v>
+        <v>0.003482262324246026</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>covid_work</t>
+          <t>dieta</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.004466516530589229</v>
+        <v>0.003418855717389639</v>
       </c>
     </row>
     <row r="54">
@@ -972,67 +972,67 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.004207955823998007</v>
+        <v>0.003364847393559199</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>district_gràcia</t>
+          <t>hour_gps</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.003954261433267346</v>
+        <v>0.003317686544087178</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>smoke</t>
+          <t>gender</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.003759646479080766</v>
+        <v>0.003210372468908978</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>covid_public_trans</t>
+          <t>district_gràcia</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.003364930920662774</v>
+        <v>0.003112674979544531</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>covid_electric</t>
+          <t>covid_bikewalk</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.003202918182726308</v>
+        <v>0.002959190270323634</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>hour_gps</t>
+          <t>enfermo</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.003136072604098647</v>
+        <v>0.002743797121895428</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>gender</t>
+          <t>covid_electric</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.002952298733686911</v>
+        <v>0.002732942618470504</v>
       </c>
     </row>
     <row r="61">
@@ -1042,283 +1042,283 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.002762541275909424</v>
+        <v>0.002690281379035318</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>access_greenbluespaces_300mbuff</t>
+          <t>covid_espacios</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.002710034673356606</v>
+        <v>0.002641138886461025</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>incidence_cat_physical incidence</t>
+          <t>covid_aire</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.002678880655019574</v>
+        <v>0.002616860342736269</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>incidence_cat_mobility incidence</t>
+          <t>alcohol</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.002415167952130824</v>
+        <v>0.002311489124105405</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>bebida</t>
+          <t>education</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.002395554165291919</v>
+        <v>0.002269506845231397</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>district_ciutat vella</t>
+          <t>bebida</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.00235232557333842</v>
+        <v>0.00219209116302803</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>actividadfisica</t>
+          <t>psycho</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.00216027206763097</v>
+        <v>0.002040636088757479</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>covid_aire</t>
+          <t>incidence_cat_no incidence</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.001939862713220223</v>
+        <v>0.001935184787919176</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>dieta</t>
+          <t>incidence_cat_physical incidence</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.001933975968537552</v>
+        <v>0.001799255205453774</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>enfermo</t>
+          <t>district_sant martí</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.001770863481201559</v>
+        <v>0.001759878344252277</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>covid_bikewalk</t>
+          <t>hours_noise_55_day</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.00171995422798053</v>
+        <v>0.001483628850294821</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>education</t>
+          <t>incidence_cat_mobility incidence</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.001621306959639431</v>
+        <v>0.001436585018072404</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>incidence_cat_no incidence</t>
+          <t>drogas</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.00157300204763623</v>
+        <v>0.001194004863085929</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>covid_espacios</t>
+          <t>Totaltime_estimated</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.001572514816709256</v>
+        <v>0.0008781304135981407</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>alcohol</t>
+          <t>district_nou barris</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.001572096616098865</v>
+        <v>0.0007358362638834137</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>hours_noise_55_day</t>
+          <t>hours_noise_65_day</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.001499891565271074</v>
+        <v>0.0005161257156596179</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>drogas</t>
+          <t>district_sants-montjuïc</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.001133960973872722</v>
+        <v>0.0004872896868171854</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Totaltime_estimated</t>
+          <t>district_sarria sant-gervasi</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.001071249404965838</v>
+        <v>0.0002494397555121965</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>district_horta-guinardo</t>
+          <t>incidence_cat_physical and mobility incidences</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.001059834974854107</v>
+        <v>0.0001934502758313264</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>psycho</t>
+          <t>district_16</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.000995479433959691</v>
+        <v>9.323809649778438e-05</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>district_nou barris</t>
+          <t>district_les corts</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.0009825347625463216</v>
+        <v>1.920146574606464e-05</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>district_16</t>
+          <t>mentalhealth_survey</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.0009755537277750091</v>
+        <v>1.735216794259712e-05</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>district_sarria sant-gervasi</t>
+          <t>correct</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.000839760412931765</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>district_sant martí</t>
+          <t>noise_total_LDEN_55</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.0007308972065331064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>district_sants-montjuïc</t>
+          <t>maxwindspeed_12h</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.0006351273461374158</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>hours_noise_65_day</t>
+          <t>maxwindspeed_24h</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.0005525741816917533</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>incidence_cat_physical and mobility incidences</t>
+          <t>precip_24h_binary</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.0003013716064338718</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>mentalhealth_survey</t>
+          <t>precip_12h</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>4.261318664377367e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>correct</t>
+          <t>precip_12h_binary</t>
         </is>
       </c>
       <c r="B89" t="n">
@@ -1328,7 +1328,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>hours_greenblue_day</t>
+          <t>precip_24h</t>
         </is>
       </c>
       <c r="B90" t="n">
@@ -1338,80 +1338,10 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>noise_total_LDEN_55</t>
+          <t>hours_greenblue_day</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>maxwindspeed_12h</t>
-        </is>
-      </c>
-      <c r="B92" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>precip_24h_binary</t>
-        </is>
-      </c>
-      <c r="B93" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>precip_24h</t>
-        </is>
-      </c>
-      <c r="B94" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>precip_12h</t>
-        </is>
-      </c>
-      <c r="B95" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>precip_12h_binary</t>
-        </is>
-      </c>
-      <c r="B96" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>maxwindspeed_24h</t>
-        </is>
-      </c>
-      <c r="B97" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>district_les corts</t>
-        </is>
-      </c>
-      <c r="B98" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/regression/results/random_forest_importance.xlsx
+++ b/data/regression/results/random_forest_importance.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B91"/>
+  <dimension ref="A1:B85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,31 +448,31 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ordenador</t>
+          <t>dayoftheweek</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.09887501526977123</v>
+        <v>0.1221072954858897</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>dayoftheweek</t>
+          <t>otrofactor</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.09682402125801522</v>
+        <v>0.07569948455003669</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>otrofactor</t>
+          <t>ordenador</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.08013130524169729</v>
+        <v>0.06921844334465452</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.06589331398081105</v>
+        <v>0.0551022300865068</v>
       </c>
     </row>
     <row r="6">
@@ -492,37 +492,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.05053771469614842</v>
+        <v>0.03743264974237038</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>sec_noise55_day</t>
+          <t>µgm3</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.02950747599999023</v>
+        <v>0.03487270167606753</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>µgm3</t>
+          <t>sec_noise55_day</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.02907741627195007</v>
+        <v>0.02582154990337319</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>age_yrs</t>
+          <t>mean_congruent</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.02768490068390338</v>
+        <v>0.02420185228611426</v>
       </c>
     </row>
     <row r="10">
@@ -532,27 +532,27 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.02271270949269652</v>
+        <v>0.02378951333711281</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>mean_congruent</t>
+          <t>no2gps_24h</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.02027346349125209</v>
+        <v>0.02331508241348652</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>tmean_24h</t>
+          <t>age_yrs</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.02022413590477517</v>
+        <v>0.02273969009917915</v>
       </c>
     </row>
     <row r="13">
@@ -562,347 +562,347 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.01840242507845293</v>
+        <v>0.02261654053109576</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>tmean_12h</t>
+          <t>pressure_12h</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.01661515478570087</v>
+        <v>0.01949357001635026</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>sec_noise65_day</t>
+          <t>pressure_24h</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.01641981338535083</v>
+        <v>0.01824274696378295</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>pm25bcn</t>
+          <t>no2bcn_24h</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.01558388549297818</v>
+        <v>0.01744851563938816</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>humi_24h</t>
+          <t>horasfuera</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.01548795460520847</v>
+        <v>0.01737119186238674</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>horasfuera</t>
+          <t>tmean_24h</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.01489449054728047</v>
+        <v>0.01736268615903167</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>sueno</t>
+          <t>z_inhib_control</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.01478367131658935</v>
+        <v>0.01716227863056976</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>no2gps_12h</t>
+          <t>tmean_12h</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.0147688790101955</v>
+        <v>0.01617750551865343</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>z_performance</t>
+          <t>humi_24h</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.0141447599779662</v>
+        <v>0.01611537408699295</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>z_inhib_control</t>
+          <t>sueno</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.01376715200802381</v>
+        <v>0.0151291548873223</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>covid_mood</t>
+          <t>energia</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.01306297865391264</v>
+        <v>0.01488377174895924</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>pressure_24h</t>
+          <t>pm25bcn</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.01294183366652413</v>
+        <v>0.01481154830383589</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>humi_12h</t>
+          <t>occurrence_mental</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.01210535466672414</v>
+        <v>0.01469531669848489</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>no2bcn_12h_x30</t>
+          <t>z_performance</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.01203246388906488</v>
+        <v>0.01425977819519056</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>pressure_12h</t>
+          <t>humi_12h</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.01188892283550646</v>
+        <v>0.01423059544284353</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>energia</t>
+          <t>z_mean_incongruent</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.01174820177161992</v>
+        <v>0.01310302515005596</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>no2bcn_24h_x30</t>
+          <t>occurrence_stroop</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.01157076441765158</v>
+        <v>0.01270495894885975</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>covid_work</t>
+          <t>min_gps</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.01092563955328726</v>
+        <v>0.01258576410905097</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>occurrence_stroop</t>
+          <t>sec_noise65_day</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.01024294729347524</v>
+        <v>0.01224309765063131</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>z_mean_incongruent</t>
+          <t>covid_mood</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.01013958120866199</v>
+        <v>0.01185769316513347</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>occurrence_mental</t>
+          <t>covid_motor</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.01006192209811387</v>
+        <v>0.01095198620488875</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>no2bcn_12h</t>
+          <t>covid_work</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.00997223450367651</v>
+        <v>0.01085227126730975</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>no2bcn_24h</t>
+          <t>BCμg</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.009789220500209325</v>
+        <v>0.009635374461158511</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>min_gps</t>
+          <t>mean_incongruent</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.009759453796721607</v>
+        <v>0.009405005758600236</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>smoke</t>
+          <t>response_duration_ms</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.009160814442091424</v>
+        <v>0.009183424533243603</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>BCμg</t>
+          <t>performance</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.008084280145514194</v>
+        <v>0.008648952972186034</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>covid_motor</t>
+          <t>sec_greenblue_day</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.007317001638875655</v>
+        <v>0.008603697949100019</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>no2gps_12h_x30</t>
+          <t>covid_sleep</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.007014201254551725</v>
+        <v>0.007486478523293356</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>no2gps_24h</t>
+          <t>district_gràcia</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.006639182427205532</v>
+        <v>0.006467036792442802</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>covid_sleep</t>
+          <t>district_horta-guinardo</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.006586989599977676</v>
+        <v>0.006415163548509312</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>no2gps_24h_x30</t>
+          <t>hour_gps</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.006430671683138258</v>
+        <v>0.005806947075165526</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>sec_greenblue_day</t>
+          <t>smoke</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.005933915385275832</v>
+        <v>0.005722012246643704</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>response_duration_ms</t>
+          <t>incidence_cat_physical incidence</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.005893027252789283</v>
+        <v>0.005286969488374683</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>performance</t>
+          <t>covid_espacios</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.005620093059859157</v>
+        <v>0.004694668604115363</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>mean_incongruent</t>
+          <t>access_greenbluespaces_300mbuff</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.005111470546198229</v>
+        <v>0.004439769653103652</v>
       </c>
     </row>
     <row r="48">
@@ -912,167 +912,167 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.004176935864553074</v>
+        <v>0.004215583839700711</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>district_horta-guinardo</t>
+          <t>dieta</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.004165256090951137</v>
+        <v>0.003680645378604908</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>covid_public_trans</t>
+          <t>covid_electric</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.003607889755420121</v>
+        <v>0.003580675305502739</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>access_greenbluespaces_300mbuff</t>
+          <t>district_eixample</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.003503859321345258</v>
+        <v>0.003377690333776486</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>actividadfisica</t>
+          <t>gender</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.003482262324246026</v>
+        <v>0.003347547382747055</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>dieta</t>
+          <t>covid_bikewalk</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.003418855717389639</v>
+        <v>0.00330773324301751</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>district_eixample</t>
+          <t>actividadfisica</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.003364847393559199</v>
+        <v>0.003220646361549869</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>hour_gps</t>
+          <t>covid_public_trans</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.003317686544087178</v>
+        <v>0.003182722452691978</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>gender</t>
+          <t>covid_aire</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.003210372468908978</v>
+        <v>0.002918800178436026</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>district_gràcia</t>
+          <t>enfermo</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.003112674979544531</v>
+        <v>0.002376560858734611</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>covid_bikewalk</t>
+          <t>district_sant andreu</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.002959190270323634</v>
+        <v>0.002280216357248876</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>enfermo</t>
+          <t>alcohol</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.002743797121895428</v>
+        <v>0.002144549613071678</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>covid_electric</t>
+          <t>bebida</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.002732942618470504</v>
+        <v>0.002131871443458565</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>district_sant andreu</t>
+          <t>incidence_cat_mobility incidence</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.002690281379035318</v>
+        <v>0.002129521096523522</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>covid_espacios</t>
+          <t>incidence_cat_no incidence</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.002641138886461025</v>
+        <v>0.00212184004221722</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>covid_aire</t>
+          <t>hours_noise_55_day</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.002616860342736269</v>
+        <v>0.001965975394640776</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>alcohol</t>
+          <t>psycho</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.002311489124105405</v>
+        <v>0.001929531467659699</v>
       </c>
     </row>
     <row r="65">
@@ -1082,183 +1082,183 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.002269506845231397</v>
+        <v>0.001686398526417899</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>bebida</t>
+          <t>district_sarria sant-gervasi</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.00219209116302803</v>
+        <v>0.001487082024481296</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>psycho</t>
+          <t>district_sant martí</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.002040636088757479</v>
+        <v>0.001447937247343714</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>incidence_cat_no incidence</t>
+          <t>drogas</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.001935184787919176</v>
+        <v>0.001258129134431675</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>incidence_cat_physical incidence</t>
+          <t>incidence_cat_physical and mobility incidences</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.001799255205453774</v>
+        <v>0.001174357669157489</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>district_sant martí</t>
+          <t>district_nou barris</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.001759878344252277</v>
+        <v>0.001052665470659128</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>hours_noise_55_day</t>
+          <t>Totaltime_estimated</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.001483628850294821</v>
+        <v>0.001034464251478745</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>incidence_cat_mobility incidence</t>
+          <t>hours_noise_65_day</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.001436585018072404</v>
+        <v>0.0007934559933043292</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>drogas</t>
+          <t>district_sants-montjuïc</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.001194004863085929</v>
+        <v>0.000750769487473173</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Totaltime_estimated</t>
+          <t>district_16</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.0008781304135981407</v>
+        <v>0.0007379237768718026</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>district_nou barris</t>
+          <t>district_les corts</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.0007358362638834137</v>
+        <v>0.0001729984990074107</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>hours_noise_65_day</t>
+          <t>mentalhealth_survey</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.0005161257156596179</v>
+        <v>9.634145824476796e-05</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>district_sants-montjuïc</t>
+          <t>correct</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.0004872896868171854</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>district_sarria sant-gervasi</t>
+          <t>noise_total_LDEN_55</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.0002494397555121965</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>incidence_cat_physical and mobility incidences</t>
+          <t>maxwindspeed_12h</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.0001934502758313264</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>district_16</t>
+          <t>maxwindspeed_24h</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>9.323809649778438e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>district_les corts</t>
+          <t>precip_24h_binary</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>1.920146574606464e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>mentalhealth_survey</t>
+          <t>precip_12h</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>1.735216794259712e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>correct</t>
+          <t>precip_12h_binary</t>
         </is>
       </c>
       <c r="B83" t="n">
@@ -1268,7 +1268,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>noise_total_LDEN_55</t>
+          <t>precip_24h</t>
         </is>
       </c>
       <c r="B84" t="n">
@@ -1278,70 +1278,10 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>maxwindspeed_12h</t>
+          <t>hours_greenblue_day</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>maxwindspeed_24h</t>
-        </is>
-      </c>
-      <c r="B86" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>precip_24h_binary</t>
-        </is>
-      </c>
-      <c r="B87" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>precip_12h</t>
-        </is>
-      </c>
-      <c r="B88" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>precip_12h_binary</t>
-        </is>
-      </c>
-      <c r="B89" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>precip_24h</t>
-        </is>
-      </c>
-      <c r="B90" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>hours_greenblue_day</t>
-        </is>
-      </c>
-      <c r="B91" t="n">
         <v>0</v>
       </c>
     </row>
